--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6873EB-B302-5A4F-AD1D-80AFF1F16FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2744CCD-1387-314E-9F89-4F17D0E624EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41080" yWindow="-1400" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="367">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1131,6 +1131,15 @@
   </si>
   <si>
     <t>sort using self-defined key: sorted(numStr, key=cmp_to_key(compare)), def compare(n1, n2): if n1 + n2 &gt; n2 + n1: return -1 else: return 1</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>prefixsum + greedy / kadane: ignore previous nums when curSum is negative(set curSum to 0)</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1210,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1209,6 +1218,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1498,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3299,6 +3309,22 @@
       </c>
       <c r="C172" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2744CCD-1387-314E-9F89-4F17D0E624EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E6F4D-3D1A-B245-9279-91C6AAB28FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="369">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1140,6 +1140,12 @@
   </si>
   <si>
     <t>prefixsum + greedy / kadane: ignore previous nums when curSum is negative(set curSum to 0)</t>
+  </si>
+  <si>
+    <t>160. Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>use hashmap for O(n) Memo; traverse lists twice(ptrA goes to headB when reach end, ptrB vice versa) for O(1)</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1216,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1218,7 +1224,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1508,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2405,925 +2410,936 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
         <v>60</v>
       </c>
       <c r="C110" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
         <v>79</v>
       </c>
-      <c r="D117">
+      <c r="D118">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B140" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
       </c>
       <c r="C141" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B145" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C146" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B152" t="s">
-        <v>60</v>
-      </c>
-      <c r="C152" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
         <v>60</v>
       </c>
       <c r="C153" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B154" t="s">
         <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B155" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B155" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B164" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B166" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>60</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B170" t="s">
-        <v>60</v>
-      </c>
-      <c r="C170" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B174" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E6F4D-3D1A-B245-9279-91C6AAB28FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FC1089-C1B3-964C-A5C3-997A656AF428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="371">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1146,6 +1146,12 @@
   </si>
   <si>
     <t>use hashmap for O(n) Memo; traverse lists twice(ptrA goes to headB when reach end, ptrB vice versa) for O(1)</t>
+  </si>
+  <si>
+    <t>367. Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>binary search to achieve O(logn)</t>
   </si>
 </sst>
 </file>
@@ -1513,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2327,1019 +2333,1030 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>308</v>
+      <c r="A77" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B111" t="s">
         <v>60</v>
       </c>
       <c r="C111" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>79</v>
       </c>
-      <c r="D118">
+      <c r="D119">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B141" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B142" t="s">
         <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B146" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B153" t="s">
-        <v>60</v>
-      </c>
-      <c r="C153" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B154" t="s">
         <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B155" t="s">
         <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B156" t="s">
+        <v>60</v>
+      </c>
+      <c r="C156" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B156" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B163" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B167" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>60</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B171" t="s">
-        <v>60</v>
-      </c>
-      <c r="C171" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C172" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B173" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B175" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FC1089-C1B3-964C-A5C3-997A656AF428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3749D9-75FD-6647-A380-D29F1ACEADBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="373">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1152,6 +1152,12 @@
   </si>
   <si>
     <t>binary search to achieve O(logn)</t>
+  </si>
+  <si>
+    <t>1343. Number of Sub-arrays of Size K and Average Greater than or Equal to Threshold</t>
+  </si>
+  <si>
+    <t>sliding window, validSum = threshold*k</t>
   </si>
 </sst>
 </file>
@@ -1519,15 +1525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.1640625" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
   </cols>
@@ -2125,90 +2131,90 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>27</v>
+      <c r="A57" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>360</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>361</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2219,1144 +2225,1155 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B112" t="s">
         <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>79</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B142" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B143" t="s">
         <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B147" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C148" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B154" t="s">
-        <v>60</v>
-      </c>
-      <c r="C154" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B155" t="s">
         <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B156" t="s">
         <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157" t="s">
+        <v>60</v>
+      </c>
+      <c r="C157" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B157" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B161" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B164" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B166" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B168" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>60</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B172" t="s">
-        <v>60</v>
-      </c>
-      <c r="C172" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B174" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B176" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3749D9-75FD-6647-A380-D29F1ACEADBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29EA802-BF03-A646-A076-EC9976C26DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="5940" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="375">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1158,6 +1158,12 @@
   </si>
   <si>
     <t>sliding window, validSum = threshold*k</t>
+  </si>
+  <si>
+    <t>735. Asteroid Collision</t>
+  </si>
+  <si>
+    <t># collisions only happen when stack[-1] is positive and curS is negative # tips: set curS to 0 is curS is exploded</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2258,1122 +2264,1133 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B113" t="s">
         <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>79</v>
       </c>
-      <c r="D120">
+      <c r="D121">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B144" t="s">
         <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C145" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B148" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C149" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B155" t="s">
-        <v>60</v>
-      </c>
-      <c r="C155" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B156" t="s">
         <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B157" t="s">
         <v>60</v>
       </c>
       <c r="C157" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" t="s">
+        <v>60</v>
+      </c>
+      <c r="C158" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B158" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B161" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B169" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>60</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C172" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B173" t="s">
-        <v>60</v>
-      </c>
-      <c r="C173" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B175" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B177" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29EA802-BF03-A646-A076-EC9976C26DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EAF9E3-E040-444F-B1CC-F912F22A1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="5940" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="4340" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="377">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1164,6 +1164,12 @@
   </si>
   <si>
     <t># collisions only happen when stack[-1] is positive and curS is negative # tips: set curS to 0 is curS is exploded</t>
+  </si>
+  <si>
+    <t>80. Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>similar to 26, add a variable dupCount.</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2056,182 +2062,182 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>349</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>322</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>323</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>360</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>361</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2242,1155 +2248,1166 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>374</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B109" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
         <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>79</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B144" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B145" t="s">
         <v>60</v>
       </c>
       <c r="C145" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C146" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B156" t="s">
-        <v>60</v>
-      </c>
-      <c r="C156" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B157" t="s">
         <v>60</v>
       </c>
       <c r="C157" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B158" t="s">
         <v>60</v>
       </c>
       <c r="C158" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B159" t="s">
+        <v>60</v>
+      </c>
+      <c r="C159" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B159" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B161" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B163" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B166" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B170" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>60</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B174" t="s">
-        <v>60</v>
-      </c>
-      <c r="C174" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C175" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B176" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B178" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EAF9E3-E040-444F-B1CC-F912F22A1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76D6AB4-0DB5-354E-9656-CF3C38C59D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="4340" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="382">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1170,6 +1170,21 @@
   </si>
   <si>
     <t>similar to 26, add a variable dupCount.</t>
+  </si>
+  <si>
+    <t>523. Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>use a hashmap {mod: firstIndex} to store mod values， initialize it with {0:-1} to avoid edge case: nums[0] satisfies condition</t>
+  </si>
+  <si>
+    <t>å</t>
+  </si>
+  <si>
+    <t>1838. Frequency of the Most Frequent Element</t>
+  </si>
+  <si>
+    <t>sort the array because we are only allowed to increase elements, while the window is invalid, shrink from left then record length and expand to right (nums[r] * (r - l + 1) &gt; curSum + k)</t>
   </si>
 </sst>
 </file>
@@ -1537,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1714,7 +1729,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>291</v>
       </c>
@@ -1725,7 +1740,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>293</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>295</v>
       </c>
@@ -1747,7 +1762,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>324</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>326</v>
       </c>
@@ -1769,7 +1784,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>320</v>
       </c>
@@ -1779,1635 +1794,1660 @@
       <c r="C22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>6</v>
+        <v>356</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>362</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>363</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>349</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>322</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>323</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>360</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>361</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>314</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>368</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B110" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
         <v>79</v>
       </c>
-      <c r="D122">
+      <c r="D124">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>217</v>
+      <c r="A142" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
-        <v>231</v>
+      <c r="A144" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B145" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B146" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C147" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C148" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>262</v>
+      <c r="A156" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B157" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B158" t="s">
-        <v>60</v>
-      </c>
-      <c r="C158" t="s">
-        <v>266</v>
+      <c r="A158" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B159" t="s">
         <v>60</v>
       </c>
       <c r="C159" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B160" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B161" t="s">
+        <v>60</v>
+      </c>
+      <c r="C161" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B160" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B163" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B164" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>277</v>
+      <c r="A168" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B170" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
-        <v>281</v>
+      <c r="A170" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B171" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B173" t="s">
-        <v>60</v>
-      </c>
-      <c r="C173" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B175" t="s">
         <v>60</v>
       </c>
       <c r="C175" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B176" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" t="s">
-        <v>288</v>
+      <c r="A176" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B177" t="s">
+        <v>60</v>
+      </c>
+      <c r="C177" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B177" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B179" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76D6AB4-0DB5-354E-9656-CF3C38C59D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E71F20-E195-F448-9481-AB8BBFEDAAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="384">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1185,6 +1185,12 @@
   </si>
   <si>
     <t>sort the array because we are only allowed to increase elements, while the window is invalid, shrink from left then record length and expand to right (nums[r] * (r - l + 1) &gt; curSum + k)</t>
+  </si>
+  <si>
+    <t>901. Online Stock Span</t>
+  </si>
+  <si>
+    <t>Remember if the previous day &gt; curPrice, no need to go further back; store [price, span] pair in the stack. No need to iterate over and over again, can use previous calculated span, draw out to visualize</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2343,1111 +2349,1122 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>184</v>
+        <v>382</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B117" t="s">
         <v>60</v>
       </c>
       <c r="C117" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C118" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>79</v>
       </c>
-      <c r="D124">
+      <c r="D125">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B147" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B148" t="s">
         <v>60</v>
       </c>
       <c r="C148" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C149" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C153" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B159" t="s">
-        <v>60</v>
-      </c>
-      <c r="C159" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B160" t="s">
         <v>60</v>
       </c>
       <c r="C160" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B161" t="s">
         <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B162" t="s">
+        <v>60</v>
+      </c>
+      <c r="C162" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B162" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B164" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B166" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B173" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>60</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B177" t="s">
-        <v>60</v>
-      </c>
-      <c r="C177" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C178" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B179" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B181" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E71F20-E195-F448-9481-AB8BBFEDAAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB966C76-AD73-7E46-84FF-0D955B0AF202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="386">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1191,6 +1191,12 @@
   </si>
   <si>
     <t>Remember if the previous day &gt; curPrice, no need to go further back; store [price, span] pair in the stack. No need to iterate over and over again, can use previous calculated span, draw out to visualize</t>
+  </si>
+  <si>
+    <t>71. Simplify Path</t>
+  </si>
+  <si>
+    <t>if  cannot use split, use 2 while loops to achieve the split behaviour, then operate on an empty stack (list)</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2360,1111 +2366,1122 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>184</v>
+        <v>384</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B118" t="s">
         <v>60</v>
       </c>
       <c r="C118" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>79</v>
       </c>
-      <c r="D125">
+      <c r="D126">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B148" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B149" t="s">
         <v>60</v>
       </c>
       <c r="C149" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C150" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B160" t="s">
-        <v>60</v>
-      </c>
-      <c r="C160" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>60</v>
       </c>
       <c r="C162" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B163" t="s">
+        <v>60</v>
+      </c>
+      <c r="C163" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B163" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B166" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B170" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B174" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>60</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B178" t="s">
-        <v>60</v>
-      </c>
-      <c r="C178" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C179" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B180" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B182" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB966C76-AD73-7E46-84FF-0D955B0AF202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839806E9-2E05-864A-89F4-96982A2515DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="388">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1197,6 +1197,12 @@
   </si>
   <si>
     <t>if  cannot use split, use 2 while loops to achieve the split behaviour, then operate on an empty stack (list)</t>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>use 2* binary search, one is leftBiased &amp; one is rightBiased.</t>
   </si>
 </sst>
 </file>
@@ -1564,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2514,974 +2520,985 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B119" t="s">
         <v>60</v>
       </c>
       <c r="C119" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>79</v>
       </c>
-      <c r="D126">
+      <c r="D127">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B150" t="s">
         <v>60</v>
       </c>
       <c r="C150" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C151" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B154" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B161" t="s">
-        <v>60</v>
-      </c>
-      <c r="C161" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B162" t="s">
         <v>60</v>
       </c>
       <c r="C162" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B163" t="s">
         <v>60</v>
       </c>
       <c r="C163" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B164" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B164" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B166" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B173" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B175" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>60</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B179" t="s">
-        <v>60</v>
-      </c>
-      <c r="C179" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C180" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B181" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B183" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839806E9-2E05-864A-89F4-96982A2515DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5757FCA0-E70A-8A41-86C8-F0A5A3577EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="390">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1203,6 +1203,12 @@
   </si>
   <si>
     <t>use 2* binary search, one is leftBiased &amp; one is rightBiased.</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>sliding window, 2 while loops, inner loop is shrinking from left and outer loop is expanding to the right</t>
   </si>
 </sst>
 </file>
@@ -1570,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2268,45 +2274,45 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2317,1188 +2323,1199 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>382</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>383</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>184</v>
+        <v>384</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>386</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>387</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B108" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>79</v>
       </c>
-      <c r="D127">
+      <c r="D128">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B151" t="s">
         <v>60</v>
       </c>
       <c r="C151" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B162" t="s">
-        <v>60</v>
-      </c>
-      <c r="C162" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B163" t="s">
         <v>60</v>
       </c>
       <c r="C163" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B164" t="s">
         <v>60</v>
       </c>
       <c r="C164" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B165" t="s">
+        <v>60</v>
+      </c>
+      <c r="C165" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B174" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B176" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>60</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B180" t="s">
-        <v>60</v>
-      </c>
-      <c r="C180" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C181" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B182" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B184" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5757FCA0-E70A-8A41-86C8-F0A5A3577EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FCAC17-EFE5-1642-88E0-39E3F852F966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="392">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1209,6 +1209,12 @@
   </si>
   <si>
     <t>sliding window, 2 while loops, inner loop is shrinking from left and outer loop is expanding to the right</t>
+  </si>
+  <si>
+    <t>2130. Maximum Twin Sum of a Linked List</t>
+  </si>
+  <si>
+    <t>use extra memory is doable but slow and memory expensive; can reverse the first half of the LL using prev and tmp</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2663,859 +2669,870 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>47</v>
+        <v>390</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>48</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>60</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B120" t="s">
-        <v>60</v>
-      </c>
-      <c r="C120" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B121" t="s">
         <v>60</v>
       </c>
       <c r="C121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B122" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
         <v>79</v>
       </c>
-      <c r="D128">
+      <c r="D129">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B151" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B152" t="s">
         <v>60</v>
       </c>
       <c r="C152" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C153" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B156" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C157" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B161" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B163" t="s">
-        <v>60</v>
-      </c>
-      <c r="C163" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B164" t="s">
         <v>60</v>
       </c>
       <c r="C164" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B165" t="s">
         <v>60</v>
       </c>
       <c r="C165" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B166" t="s">
+        <v>60</v>
+      </c>
+      <c r="C166" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B166" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B170" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B173" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B175" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B177" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>60</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B181" t="s">
-        <v>60</v>
-      </c>
-      <c r="C181" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C182" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B183" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B185" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FCAC17-EFE5-1642-88E0-39E3F852F966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CEC79E-75FD-2349-AE6D-90FBBD19A681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="394">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1215,6 +1215,12 @@
   </si>
   <si>
     <t>use extra memory is doable but slow and memory expensive; can reverse the first half of the LL using prev and tmp</t>
+  </si>
+  <si>
+    <t>707. Design Linked List</t>
+  </si>
+  <si>
+    <t>use doubly linked list, create 2 dummy nodes (left and right)</t>
   </si>
 </sst>
 </file>
@@ -1582,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2680,859 +2686,870 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>47</v>
+        <v>392</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>48</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B122" t="s">
         <v>60</v>
       </c>
       <c r="C122" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>79</v>
       </c>
-      <c r="D129">
+      <c r="D130">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B150" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B153" t="s">
         <v>60</v>
       </c>
       <c r="C153" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B157" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B164" t="s">
-        <v>60</v>
-      </c>
-      <c r="C164" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B165" t="s">
         <v>60</v>
       </c>
       <c r="C165" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B166" t="s">
         <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B167" t="s">
+        <v>60</v>
+      </c>
+      <c r="C167" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B167" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B170" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B174" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B176" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B178" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>60</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B182" t="s">
-        <v>60</v>
-      </c>
-      <c r="C182" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C183" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B184" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B186" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CEC79E-75FD-2349-AE6D-90FBBD19A681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D89BD1-8102-C442-8849-5BB871408F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="396">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1221,6 +1221,12 @@
   </si>
   <si>
     <t>use doubly linked list, create 2 dummy nodes (left and right)</t>
+  </si>
+  <si>
+    <t>617. Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>recursion, create new nodes on every call, base case is both root1 and root2 are None -&gt; retrun None</t>
   </si>
 </sst>
 </file>
@@ -1588,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2831,725 +2837,736 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>163</v>
+        <v>394</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>164</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B123" t="s">
         <v>60</v>
       </c>
       <c r="C123" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
         <v>79</v>
       </c>
-      <c r="D130">
+      <c r="D131">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B154" t="s">
         <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B158" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C159" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B163" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B165" t="s">
-        <v>60</v>
-      </c>
-      <c r="C165" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B166" t="s">
         <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B167" t="s">
         <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B168" t="s">
+        <v>60</v>
+      </c>
+      <c r="C168" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B168" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B170" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B175" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B177" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B179" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>60</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B183" t="s">
-        <v>60</v>
-      </c>
-      <c r="C183" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C184" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B185" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B187" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D89BD1-8102-C442-8849-5BB871408F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA24AAF-4949-C945-9A29-BA7EC1C96740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="397">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1227,6 +1227,9 @@
   </si>
   <si>
     <t>recursion, create new nodes on every call, base case is both root1 and root2 are None -&gt; retrun None</t>
+  </si>
+  <si>
+    <t>144. Binary Tree Preorder Traversal</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2869,704 +2872,715 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>62</v>
+      <c r="A120" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B124" t="s">
         <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
         <v>79</v>
       </c>
-      <c r="D131">
+      <c r="D132">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B154" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B155" t="s">
         <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B159" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C160" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B164" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B166" t="s">
-        <v>60</v>
-      </c>
-      <c r="C166" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B167" t="s">
         <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B168" t="s">
         <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B169" t="s">
+        <v>60</v>
+      </c>
+      <c r="C169" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B169" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B173" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B176" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B178" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>60</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B184" t="s">
-        <v>60</v>
-      </c>
-      <c r="C184" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C185" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B186" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B188" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
         <v>366</v>
       </c>
     </row>

--- a/DSANotes.xlsx
+++ b/DSANotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA24AAF-4949-C945-9A29-BA7EC1C96740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCF4621-962F-B940-B58A-16F7F8C0AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="399">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1230,6 +1230,12 @@
   </si>
   <si>
     <t>144. Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>145. Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>dfs, inorder: left -&gt; append -&gt; right; preorder: append -&gt; left -&gt; right; postorder: left -&gt; right -&gt; append OR use iterative dfs through cur and stack</t>
   </si>
 </sst>
 </file>
@@ -1597,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2879,708 +2885,719 @@
         <v>60</v>
       </c>
       <c r="C120" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B125" t="s">
         <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C126" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
         <v>79</v>
       </c>
-      <c r="D132">
+      <c r="D133">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B156" t="s">
         <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C157" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B160" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B167" t="s">
-        <v>60</v>
-      </c>
-      <c r="C167" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B168" t="s">
         <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B169" t="s">
         <v>60</v>
       </c>
       <c r="C169" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B170" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B170" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B173" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B174" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B177" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B179" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B181" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>60</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B185" t="s">
-        <v>60</v>
-      </c>
-      <c r="C185" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C186" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B187" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B189" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
         <v>366</v>
       </c>
     </row>
